--- a/output/Clustering/fish/clust_PCs_validity_measures_fish_tot_coda_rob_k6_ward.xlsx
+++ b/output/Clustering/fish/clust_PCs_validity_measures_fish_tot_coda_rob_k6_ward.xlsx
@@ -410,22 +410,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E2" t="n">
-        <v>0.74</v>
+        <v>0.805</v>
       </c>
       <c r="F2" t="n">
-        <v>0.746</v>
+        <v>0.798</v>
       </c>
       <c r="G2" t="n">
-        <v>0.378</v>
+        <v>0.232</v>
       </c>
       <c r="H2" t="n">
-        <v>1.487</v>
+        <v>1.528</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -439,22 +439,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E3" t="n">
-        <v>0.847</v>
+        <v>0.966</v>
       </c>
       <c r="F3" t="n">
-        <v>0.802</v>
+        <v>0.893</v>
       </c>
       <c r="G3" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H3" t="n">
-        <v>1.594</v>
+        <v>1.708</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -468,22 +468,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.622</v>
+        <v>0.613</v>
       </c>
       <c r="E4" t="n">
-        <v>0.842</v>
+        <v>0.984</v>
       </c>
       <c r="F4" t="n">
-        <v>0.848</v>
+        <v>1.037</v>
       </c>
       <c r="G4" t="n">
-        <v>0.226</v>
+        <v>0.235</v>
       </c>
       <c r="H4" t="n">
-        <v>1.452</v>
+        <v>1.609</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -500,19 +500,19 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.062</v>
+        <v>0.762</v>
       </c>
       <c r="E5" t="n">
-        <v>1.033</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="n">
-        <v>1.033</v>
+        <v>0.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.292</v>
+        <v>0.47</v>
       </c>
       <c r="H5" t="n">
-        <v>1.879</v>
+        <v>2.074</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -529,19 +529,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.744</v>
+        <v>0.618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.884</v>
+        <v>0.403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.756</v>
+        <v>0.419</v>
       </c>
       <c r="G6" t="n">
-        <v>0.251</v>
+        <v>0.656</v>
       </c>
       <c r="H6" t="n">
-        <v>1.875</v>
+        <v>1.533</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -555,22 +555,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.446</v>
+        <v>1.021</v>
       </c>
       <c r="E7" t="n">
-        <v>1.077</v>
+        <v>1.405</v>
       </c>
       <c r="F7" t="n">
-        <v>1.208</v>
+        <v>1.491</v>
       </c>
       <c r="G7" t="n">
-        <v>0.198</v>
+        <v>0.019</v>
       </c>
       <c r="H7" t="n">
-        <v>1.905</v>
+        <v>2.356</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
